--- a/data/trans_orig/P07B_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P07B_2023-Edad-trans_orig.xlsx
@@ -757,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12398</v>
+        <v>12285</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.00560582771253704</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03420054165128938</v>
+        <v>0.03388900566679612</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>13362</v>
+        <v>10450</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.002638149273512037</v>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01734608376044152</v>
+        <v>0.01356651260299147</v>
       </c>
     </row>
     <row r="5">
@@ -804,19 +804,19 @@
         <v>8742</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2183</v>
+        <v>2695</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>23221</v>
+        <v>22927</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02143851721456452</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.005353102443179224</v>
+        <v>0.006608186230019976</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0569428826824683</v>
+        <v>0.05622177747333489</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>11</v>
@@ -825,19 +825,19 @@
         <v>18754</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>9209</v>
+        <v>9772</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>32717</v>
+        <v>34406</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05173474515327193</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02540437191727343</v>
+        <v>0.0269568310222911</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09025073964760866</v>
+        <v>0.09491052974833201</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>14</v>
@@ -846,19 +846,19 @@
         <v>27497</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>15906</v>
+        <v>14821</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>47103</v>
+        <v>44403</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.03569617474975905</v>
+        <v>0.03569617474975904</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02064882092079519</v>
+        <v>0.01924025168115095</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06114853600479819</v>
+        <v>0.05764351045548571</v>
       </c>
     </row>
     <row r="6">
@@ -875,19 +875,19 @@
         <v>91093</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>66139</v>
+        <v>65793</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>124445</v>
+        <v>120557</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2233813512896135</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1621887964805139</v>
+        <v>0.1613393925965709</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3051667892780928</v>
+        <v>0.2956318952876819</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>71</v>
@@ -896,19 +896,19 @@
         <v>123106</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>97728</v>
+        <v>98401</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>148164</v>
+        <v>146705</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.3395917050629229</v>
+        <v>0.3395917050629228</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2695868660408227</v>
+        <v>0.2714417041391747</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4087155685958508</v>
+        <v>0.4046913715434413</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>109</v>
@@ -917,19 +917,19 @@
         <v>214199</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>182349</v>
+        <v>182389</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>249916</v>
+        <v>250687</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2780709129570168</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2367225320627173</v>
+        <v>0.2367753667762661</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3244380771632541</v>
+        <v>0.3254386357341486</v>
       </c>
     </row>
     <row r="7">
@@ -946,19 +946,19 @@
         <v>150466</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>118917</v>
+        <v>119395</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>180454</v>
+        <v>180042</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.368976191478499</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2916105342853348</v>
+        <v>0.2927821777757007</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4425148624356992</v>
+        <v>0.4415039330744829</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>69</v>
@@ -967,19 +967,19 @@
         <v>119859</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>97887</v>
+        <v>99048</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>146239</v>
+        <v>145302</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.3306343353793652</v>
+        <v>0.3306343353793651</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2700251311431073</v>
+        <v>0.2732262257358567</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4034051025742991</v>
+        <v>0.4008188941915337</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>138</v>
@@ -988,19 +988,19 @@
         <v>270325</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>230705</v>
+        <v>231127</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>307744</v>
+        <v>308224</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3509321942313459</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2994987176923845</v>
+        <v>0.3000459439878961</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3995091982620577</v>
+        <v>0.4001330184958233</v>
       </c>
     </row>
     <row r="8">
@@ -1017,19 +1017,19 @@
         <v>157491</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>126535</v>
+        <v>122997</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>190819</v>
+        <v>190732</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.3862039400173231</v>
+        <v>0.3862039400173232</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3102927063794925</v>
+        <v>0.3016170745587795</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4679312179599135</v>
+        <v>0.4677176361510602</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>55</v>
@@ -1038,19 +1038,19 @@
         <v>98760</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>76501</v>
+        <v>75993</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>123184</v>
+        <v>122896</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2724333866919029</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2110308407000209</v>
+        <v>0.2096280691543052</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3398068285985631</v>
+        <v>0.3390128895129663</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>117</v>
@@ -1059,19 +1059,19 @@
         <v>256252</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>217646</v>
+        <v>218206</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>297251</v>
+        <v>298747</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.3326625687883663</v>
+        <v>0.3326625687883662</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2825449624220124</v>
+        <v>0.2832728531070578</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3858868477195422</v>
+        <v>0.3878299594703157</v>
       </c>
     </row>
     <row r="9">
@@ -1166,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6434</v>
+        <v>6512</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.002712640241525364</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01349090280654876</v>
+        <v>0.01365511441686495</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -1184,19 +1184,19 @@
         <v>6154</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1711</v>
+        <v>1670</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15177</v>
+        <v>14086</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01226504248298289</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003409276142580017</v>
+        <v>0.003329295274985101</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03024976572394712</v>
+        <v>0.02807477744861408</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>5</v>
@@ -1205,19 +1205,19 @@
         <v>7447</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2720</v>
+        <v>2674</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>18070</v>
+        <v>17152</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.007610085234374727</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002779548154674631</v>
+        <v>0.002732075007817719</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01846442956994464</v>
+        <v>0.0175267082797214</v>
       </c>
     </row>
     <row r="11">
@@ -1234,19 +1234,19 @@
         <v>20092</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>10316</v>
+        <v>9736</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>34422</v>
+        <v>34061</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.0421320076514497</v>
+        <v>0.04213200765144971</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02163262306606715</v>
+        <v>0.02041521440960661</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.07217948140820885</v>
+        <v>0.07142265868684576</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>15</v>
@@ -1255,19 +1255,19 @@
         <v>16597</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>9631</v>
+        <v>9657</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>26913</v>
+        <v>27117</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.03307915927620201</v>
+        <v>0.033079159276202</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01919491788741591</v>
+        <v>0.01924700150600256</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.05364078196292413</v>
+        <v>0.05404681243550574</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>26</v>
@@ -1276,19 +1276,19 @@
         <v>36689</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>25099</v>
+        <v>24814</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>54622</v>
+        <v>54578</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03749068017950099</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02564729379841752</v>
+        <v>0.02535644536126208</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.05581491797055944</v>
+        <v>0.05576994457550213</v>
       </c>
     </row>
     <row r="12">
@@ -1305,19 +1305,19 @@
         <v>147773</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>123556</v>
+        <v>126554</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>175477</v>
+        <v>175224</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.3098680978827355</v>
+        <v>0.3098680978827354</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2590880445218284</v>
+        <v>0.2653738450034293</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3679615442182806</v>
+        <v>0.3674313164416644</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>163</v>
@@ -1326,19 +1326,19 @@
         <v>171064</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>151800</v>
+        <v>148568</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>192870</v>
+        <v>193511</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3409467143098898</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3025509514882907</v>
+        <v>0.296110383987</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3844066981010465</v>
+        <v>0.3856857257530987</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>261</v>
@@ -1347,19 +1347,19 @@
         <v>318837</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>284601</v>
+        <v>286044</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>353924</v>
+        <v>353205</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.325801871457018</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2908173037642595</v>
+        <v>0.2922922967805196</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3616554564966313</v>
+        <v>0.3609199480238035</v>
       </c>
     </row>
     <row r="13">
@@ -1376,19 +1376,19 @@
         <v>206605</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>179449</v>
+        <v>181792</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>234728</v>
+        <v>234164</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.433233509540385</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3762910685231801</v>
+        <v>0.381203628363577</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4922051607025322</v>
+        <v>0.4910233755223138</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>198</v>
@@ -1397,19 +1397,19 @@
         <v>215771</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>193525</v>
+        <v>195134</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>239499</v>
+        <v>240277</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4300517990884651</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3857128897559609</v>
+        <v>0.3889205999527906</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4773445200404855</v>
+        <v>0.4788932198806917</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>332</v>
@@ -1418,19 +1418,19 @@
         <v>422376</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>385277</v>
+        <v>388313</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>457089</v>
+        <v>458048</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.4316022704522921</v>
+        <v>0.4316022704522922</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3936931786352918</v>
+        <v>0.3967955370812443</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4670732189173355</v>
+        <v>0.4680532613447347</v>
       </c>
     </row>
     <row r="14">
@@ -1447,19 +1447,19 @@
         <v>101126</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>75941</v>
+        <v>75992</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>126748</v>
+        <v>125553</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2120537446839043</v>
+        <v>0.2120537446839044</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1592431348698201</v>
+        <v>0.159348959777269</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2657796879680067</v>
+        <v>0.263274488928143</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>81</v>
@@ -1468,19 +1468,19 @@
         <v>92147</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>74254</v>
+        <v>75532</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>112261</v>
+        <v>111373</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1836572848424601</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1479950868189133</v>
+        <v>0.1505427682166793</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2237469533767001</v>
+        <v>0.2219776068688928</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>139</v>
@@ -1489,19 +1489,19 @@
         <v>193273</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>163785</v>
+        <v>165668</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>224577</v>
+        <v>227465</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1974950926768141</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1673630618688595</v>
+        <v>0.1692866427076306</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.229482763599272</v>
+        <v>0.2324335839978338</v>
       </c>
     </row>
     <row r="15">
@@ -1593,19 +1593,19 @@
         <v>7715</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2949</v>
+        <v>2873</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16727</v>
+        <v>15982</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01242733076151894</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004749760441021093</v>
+        <v>0.004628263883543733</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02694263349204483</v>
+        <v>0.02574208500269864</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -1614,19 +1614,19 @@
         <v>3853</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1480</v>
+        <v>1473</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9211</v>
+        <v>8651</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.006189023300821429</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.002377955559647481</v>
+        <v>0.002366525936425856</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0147960350039229</v>
+        <v>0.01389538018643936</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>11</v>
@@ -1635,19 +1635,19 @@
         <v>11568</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6006</v>
+        <v>6001</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>21370</v>
+        <v>22186</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.009303863434678103</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.004830386676330008</v>
+        <v>0.004826191289081072</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01718703079949287</v>
+        <v>0.01784347913024359</v>
       </c>
     </row>
     <row r="17">
@@ -1664,19 +1664,19 @@
         <v>21996</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>13256</v>
+        <v>14539</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>33458</v>
+        <v>33578</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.03542882838764222</v>
+        <v>0.03542882838764221</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0213514956990826</v>
+        <v>0.02341811679237432</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05389232853718599</v>
+        <v>0.05408535485627254</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>39</v>
@@ -1685,19 +1685,19 @@
         <v>28520</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>20415</v>
+        <v>20401</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>38120</v>
+        <v>38943</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04581123447123639</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03279294451608008</v>
+        <v>0.03277016260727732</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06123156695270313</v>
+        <v>0.06255288801257075</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>59</v>
@@ -1706,19 +1706,19 @@
         <v>50516</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>38800</v>
+        <v>38445</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>63112</v>
+        <v>64342</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04062721054184178</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03120465635294342</v>
+        <v>0.03091966941833807</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05075787873201314</v>
+        <v>0.05174709851635604</v>
       </c>
     </row>
     <row r="18">
@@ -1735,19 +1735,19 @@
         <v>210567</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>184655</v>
+        <v>186087</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>235483</v>
+        <v>235194</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3391664173299684</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2974284922208696</v>
+        <v>0.2997358964870045</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3792990890453307</v>
+        <v>0.3788338596442164</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>348</v>
@@ -1756,19 +1756,19 @@
         <v>251085</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>230215</v>
+        <v>229151</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>271526</v>
+        <v>271126</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4033123440959986</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3697901038132609</v>
+        <v>0.3680815653655496</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4361472068554907</v>
+        <v>0.4355049989026149</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>542</v>
@@ -1777,19 +1777,19 @@
         <v>461652</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>426721</v>
+        <v>427806</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>492054</v>
+        <v>493481</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3712837356356003</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3431911392076996</v>
+        <v>0.344063194489617</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3957349323668176</v>
+        <v>0.3968827910064519</v>
       </c>
     </row>
     <row r="19">
@@ -1806,19 +1806,19 @@
         <v>277303</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>252148</v>
+        <v>252062</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>303168</v>
+        <v>305736</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4466595245962931</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4061417816085666</v>
+        <v>0.4060037105336734</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4883213239951303</v>
+        <v>0.4924581003058978</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>333</v>
@@ -1827,19 +1827,19 @@
         <v>243454</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>223705</v>
+        <v>224614</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>264258</v>
+        <v>266356</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3910556666211693</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3593333874123192</v>
+        <v>0.3607936307448039</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.424472564167939</v>
+        <v>0.427842578966947</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>575</v>
@@ -1848,19 +1848,19 @@
         <v>520757</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>488283</v>
+        <v>484083</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>556822</v>
+        <v>553883</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4188191472622495</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3927024617193913</v>
+        <v>0.3893245260260579</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4478244618524869</v>
+        <v>0.4454609485431533</v>
       </c>
     </row>
     <row r="20">
@@ -1877,19 +1877,19 @@
         <v>103256</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>82729</v>
+        <v>84602</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>124416</v>
+        <v>125408</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1663178989245774</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1332532623906918</v>
+        <v>0.1362712242305778</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2004006829084675</v>
+        <v>0.2019982873462893</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>122</v>
@@ -1898,19 +1898,19 @@
         <v>95644</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>80357</v>
+        <v>81229</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>111386</v>
+        <v>112547</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1536317315107743</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1290762171442137</v>
+        <v>0.1304766093346119</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1789176448122243</v>
+        <v>0.1807823397895494</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>206</v>
@@ -1919,19 +1919,19 @@
         <v>198901</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>173521</v>
+        <v>170063</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>225582</v>
+        <v>224433</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1599660431256302</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1395541960635453</v>
+        <v>0.1367732682251779</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1814245874811306</v>
+        <v>0.1805006910924341</v>
       </c>
     </row>
     <row r="21">
@@ -2023,19 +2023,19 @@
         <v>9733</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4298</v>
+        <v>4568</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>18689</v>
+        <v>19320</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0138913462479046</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.006134585370492556</v>
+        <v>0.006520317898041765</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02667541869207969</v>
+        <v>0.02757531841585071</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>11</v>
@@ -2044,19 +2044,19 @@
         <v>7294</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3787</v>
+        <v>3850</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>12272</v>
+        <v>13214</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.009899061061149877</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.005138734635542451</v>
+        <v>0.005225224040743187</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01665326054941737</v>
+        <v>0.01793241124318888</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>20</v>
@@ -2065,19 +2065,19 @@
         <v>17027</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>10270</v>
+        <v>10418</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>26335</v>
+        <v>26127</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01184483958611788</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.007144169807535276</v>
+        <v>0.007247444967709561</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01832020131664436</v>
+        <v>0.01817497741968772</v>
       </c>
     </row>
     <row r="23">
@@ -2094,19 +2094,19 @@
         <v>41049</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>29357</v>
+        <v>28714</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>59144</v>
+        <v>56704</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.05859043142364751</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.04190139375278101</v>
+        <v>0.0409833543807101</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.08441682431279812</v>
+        <v>0.08093368895848513</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>87</v>
@@ -2115,19 +2115,19 @@
         <v>58430</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>47942</v>
+        <v>47952</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>71446</v>
+        <v>72343</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.07929267290264552</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.06506009686440552</v>
+        <v>0.06507340244239863</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.09695676058242533</v>
+        <v>0.09817326267306578</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>121</v>
@@ -2136,19 +2136,19 @@
         <v>99479</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>82011</v>
+        <v>84364</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>119462</v>
+        <v>120992</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.06920271815137161</v>
+        <v>0.06920271815137162</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.05705119325039869</v>
+        <v>0.05868752425265538</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.08310346867551935</v>
+        <v>0.08416788308283783</v>
       </c>
     </row>
     <row r="24">
@@ -2165,19 +2165,19 @@
         <v>321515</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>294248</v>
+        <v>295889</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>348500</v>
+        <v>350082</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.4589020249464093</v>
+        <v>0.4589020249464092</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4199845721108478</v>
+        <v>0.4223259034572085</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.497419360676533</v>
+        <v>0.4996763033021607</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>535</v>
@@ -2186,19 +2186,19 @@
         <v>344901</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>322096</v>
+        <v>324269</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>363799</v>
+        <v>366291</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.4680518819899422</v>
+        <v>0.4680518819899421</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4371036859960174</v>
+        <v>0.4400526998357365</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4936980545640422</v>
+        <v>0.4970791203900796</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>848</v>
@@ -2207,19 +2207,19 @@
         <v>666416</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>633642</v>
+        <v>631306</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>704976</v>
+        <v>701200</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.4635923821022836</v>
+        <v>0.4635923821022837</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4407932098486942</v>
+        <v>0.4391683506793637</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4904168951828389</v>
+        <v>0.4877898212911663</v>
       </c>
     </row>
     <row r="25">
@@ -2236,19 +2236,19 @@
         <v>231204</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>205061</v>
+        <v>204688</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>256861</v>
+        <v>256389</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.3300005376415406</v>
+        <v>0.3300005376415405</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2926866893991684</v>
+        <v>0.2921542476827918</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3666204268647579</v>
+        <v>0.3659468148880182</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>403</v>
@@ -2257,19 +2257,19 @@
         <v>255622</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>237529</v>
+        <v>236963</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>277669</v>
+        <v>276133</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3468942782024183</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3223413212899218</v>
+        <v>0.3215729871841615</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3768144141639573</v>
+        <v>0.3747300263980782</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>624</v>
@@ -2278,19 +2278,19 @@
         <v>486826</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>454459</v>
+        <v>456488</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>521270</v>
+        <v>520103</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.3386605283443683</v>
+        <v>0.3386605283443684</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3161442948015901</v>
+        <v>0.3175560484526424</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3626215229805008</v>
+        <v>0.361809861783626</v>
       </c>
     </row>
     <row r="26">
@@ -2307,19 +2307,19 @@
         <v>97116</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>79971</v>
+        <v>78435</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>117539</v>
+        <v>117166</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.138615659740498</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1141442748943201</v>
+        <v>0.1119514825300188</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1677643475857881</v>
+        <v>0.167232220692426</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>105</v>
@@ -2328,19 +2328,19 @@
         <v>70639</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>58082</v>
+        <v>57966</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>84708</v>
+        <v>84415</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.09586210584384414</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.07882049757478433</v>
+        <v>0.07866330415975113</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1149533357250325</v>
+        <v>0.1145563506138909</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>193</v>
@@ -2349,19 +2349,19 @@
         <v>167756</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>145584</v>
+        <v>146814</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>191914</v>
+        <v>196457</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1166995318158586</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1012754859211821</v>
+        <v>0.1021313177587325</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1335049460128964</v>
+        <v>0.1366652087574489</v>
       </c>
     </row>
     <row r="27">
@@ -2453,19 +2453,19 @@
         <v>8795</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>4282</v>
+        <v>4134</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>15233</v>
+        <v>15231</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01443404508463371</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.007027572956981209</v>
+        <v>0.006784973512116842</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02499896634999893</v>
+        <v>0.02499583397356911</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>16</v>
@@ -2474,19 +2474,19 @@
         <v>10073</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>5926</v>
+        <v>6028</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>15716</v>
+        <v>15892</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01654367009699734</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.009733083521134611</v>
+        <v>0.009901351694194217</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02581245289312192</v>
+        <v>0.0261008366849546</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>26</v>
@@ -2495,19 +2495,19 @@
         <v>18868</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>12527</v>
+        <v>12000</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>27054</v>
+        <v>27298</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01548843240774748</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01028308482771127</v>
+        <v>0.009850390918474339</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02220813028194493</v>
+        <v>0.02240839196928078</v>
       </c>
     </row>
     <row r="29">
@@ -2524,19 +2524,19 @@
         <v>42368</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>31260</v>
+        <v>32338</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>55653</v>
+        <v>55780</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.06953083445279082</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.05130118908567107</v>
+        <v>0.05307007872491634</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.09133178666881574</v>
+        <v>0.0915403432487172</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>102</v>
@@ -2545,19 +2545,19 @@
         <v>64926</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>54654</v>
+        <v>54349</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>78948</v>
+        <v>77718</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.1066358555080546</v>
+        <v>0.1066358555080547</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.08976578012687735</v>
+        <v>0.08926479974626038</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1296665387118387</v>
+        <v>0.1276458623846629</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>149</v>
@@ -2566,19 +2566,19 @@
         <v>107294</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>91767</v>
+        <v>89790</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>125658</v>
+        <v>124669</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.08807586667190836</v>
+        <v>0.08807586667190835</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0753302316316586</v>
+        <v>0.07370695383829334</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1031504889625138</v>
+        <v>0.1023385427290507</v>
       </c>
     </row>
     <row r="30">
@@ -2595,19 +2595,19 @@
         <v>304820</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>281587</v>
+        <v>281009</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>329222</v>
+        <v>327852</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.500241655840434</v>
+        <v>0.5002416558404341</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.4621142288798499</v>
+        <v>0.4611650095298149</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.540287921474969</v>
+        <v>0.5380391803253163</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>505</v>
@@ -2616,19 +2616,19 @@
         <v>301816</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>284505</v>
+        <v>282668</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>324249</v>
+        <v>320014</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.4957103285520003</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.4672781970398809</v>
+        <v>0.4642612980931243</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.5325556735080103</v>
+        <v>0.5255997241058119</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>845</v>
@@ -2637,19 +2637,19 @@
         <v>606636</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>576548</v>
+        <v>576124</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>636114</v>
+        <v>638113</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.4979769054597723</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.4732781053166319</v>
+        <v>0.4729294914534937</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.5221746147680449</v>
+        <v>0.5238152650777861</v>
       </c>
     </row>
     <row r="31">
@@ -2666,19 +2666,19 @@
         <v>190808</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>170727</v>
+        <v>170451</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>213104</v>
+        <v>214360</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3131361991162765</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2801802743216848</v>
+        <v>0.2797274029907681</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3497251894562293</v>
+        <v>0.3517868426356341</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>296</v>
@@ -2687,19 +2687,19 @@
         <v>179381</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>162949</v>
+        <v>162405</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>195755</v>
+        <v>198320</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.2946202625782068</v>
+        <v>0.2946202625782069</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2676313095071244</v>
+        <v>0.2667388219127415</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3215129892611769</v>
+        <v>0.3257265943595227</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>500</v>
@@ -2708,19 +2708,19 @@
         <v>370190</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>344466</v>
+        <v>338221</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>400141</v>
+        <v>397177</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3038819626302168</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2827660051877974</v>
+        <v>0.2776391563850525</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3284681207863641</v>
+        <v>0.326035424794574</v>
       </c>
     </row>
     <row r="32">
@@ -2737,19 +2737,19 @@
         <v>62554</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>49411</v>
+        <v>49463</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>79248</v>
+        <v>81132</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1026572655058648</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.08108871863971548</v>
+        <v>0.08117459282820534</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1300536739454968</v>
+        <v>0.133145636952618</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>83</v>
@@ -2758,19 +2758,19 @@
         <v>52660</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>42123</v>
+        <v>42907</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>63724</v>
+        <v>63795</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.08648988326474084</v>
+        <v>0.08648988326474087</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.06918328378258147</v>
+        <v>0.07047147935733729</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1046627459772496</v>
+        <v>0.1047780555452816</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>145</v>
@@ -2779,19 +2779,19 @@
         <v>115214</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>98105</v>
+        <v>98177</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>134048</v>
+        <v>134725</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.09457683283035503</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.08053281882369444</v>
+        <v>0.08059136243955302</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1100376689575017</v>
+        <v>0.1105931366471924</v>
       </c>
     </row>
     <row r="33">
@@ -2883,19 +2883,19 @@
         <v>2888</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>914</v>
+        <v>880</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>8330</v>
+        <v>7022</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.007095417865591216</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.002244406908713702</v>
+        <v>0.002162842781625421</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.02046304815360089</v>
+        <v>0.0172497005774742</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>7</v>
@@ -2904,19 +2904,19 @@
         <v>4088</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1708</v>
+        <v>1800</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>7887</v>
+        <v>8978</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.009308558571880053</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.003888620194777474</v>
+        <v>0.004099078888221998</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01795896554664207</v>
+        <v>0.02044229273386114</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>11</v>
@@ -2925,19 +2925,19 @@
         <v>6976</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>3524</v>
+        <v>3641</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>12322</v>
+        <v>12259</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.008243945199334333</v>
+        <v>0.008243945199334335</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.004164589719825206</v>
+        <v>0.004302781277760643</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01456102655377393</v>
+        <v>0.0144867076324224</v>
       </c>
     </row>
     <row r="35">
@@ -2954,19 +2954,19 @@
         <v>20298</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>14294</v>
+        <v>14233</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>29080</v>
+        <v>29089</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.049861223288244</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.03511280153496765</v>
+        <v>0.03496477094860607</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.07143532930875134</v>
+        <v>0.0714584772057343</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>81</v>
@@ -2975,19 +2975,19 @@
         <v>45995</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>37157</v>
+        <v>36153</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>56987</v>
+        <v>55776</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.104732576738117</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.08460703414579221</v>
+        <v>0.08232213876875147</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1297616524870578</v>
+        <v>0.1270051990953811</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>113</v>
@@ -2996,19 +2996,19 @@
         <v>66293</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>54967</v>
+        <v>54688</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>79280</v>
+        <v>78655</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.07833715755558557</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.06495396665329337</v>
+        <v>0.06462375342206735</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.09368377620211055</v>
+        <v>0.09294541643141491</v>
       </c>
     </row>
     <row r="36">
@@ -3025,19 +3025,19 @@
         <v>226060</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>210774</v>
+        <v>209806</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>242909</v>
+        <v>244810</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.5553212711141964</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.5177712593063579</v>
+        <v>0.5153914117883235</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.5967099191737285</v>
+        <v>0.6013803732923145</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>450</v>
@@ -3046,19 +3046,19 @@
         <v>239004</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>222683</v>
+        <v>223230</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>253875</v>
+        <v>254381</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.5442223812680126</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.5070585034592618</v>
+        <v>0.5083044346425269</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.5780832832673416</v>
+        <v>0.5792362715364672</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>767</v>
@@ -3067,19 +3067,19 @@
         <v>465064</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>442120</v>
+        <v>442446</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>489161</v>
+        <v>489743</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.5495614121380711</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.5224483251755208</v>
+        <v>0.5228343266531701</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.5780365025097557</v>
+        <v>0.5787239963715604</v>
       </c>
     </row>
     <row r="37">
@@ -3096,19 +3096,19 @@
         <v>118206</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>104462</v>
+        <v>103609</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>135162</v>
+        <v>132402</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2903748479592332</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2566122570534323</v>
+        <v>0.2545185689320578</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3320290594910453</v>
+        <v>0.3252473199704564</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>240</v>
@@ -3117,19 +3117,19 @@
         <v>123200</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>109738</v>
+        <v>109728</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>137031</v>
+        <v>138239</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2805316408046759</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2498783590985783</v>
+        <v>0.2498548454326224</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3120258806461966</v>
+        <v>0.3147760576024569</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>408</v>
@@ -3138,19 +3138,19 @@
         <v>241406</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>222159</v>
+        <v>221498</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>263656</v>
+        <v>263537</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.2852666357083897</v>
+        <v>0.2852666357083898</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2625231509044882</v>
+        <v>0.2617414413373521</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3115595355259542</v>
+        <v>0.3114188428780346</v>
       </c>
     </row>
     <row r="38">
@@ -3167,19 +3167,19 @@
         <v>39628</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>30960</v>
+        <v>30244</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>52298</v>
+        <v>50784</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.09734723977273516</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.07605396807982291</v>
+        <v>0.07429513345034364</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1284714928277758</v>
+        <v>0.1247511372811985</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>49</v>
@@ -3188,19 +3188,19 @@
         <v>26879</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>20367</v>
+        <v>20519</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>34657</v>
+        <v>35050</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.06120484261731463</v>
+        <v>0.06120484261731462</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.04637716775793272</v>
+        <v>0.0467236970669141</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.07891496352708906</v>
+        <v>0.07981011442154327</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>98</v>
@@ -3209,19 +3209,19 @@
         <v>66507</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>55595</v>
+        <v>54351</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>81684</v>
+        <v>81447</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.07859084939861925</v>
+        <v>0.07859084939861927</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.06569597168797447</v>
+        <v>0.06422587498183505</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.09652503572884163</v>
+        <v>0.09624486702468332</v>
       </c>
     </row>
     <row r="39">
@@ -3313,19 +3313,19 @@
         <v>4880</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>2236</v>
+        <v>2162</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>9414</v>
+        <v>9381</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.01573197875457472</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.00720792039930864</v>
+        <v>0.006969804012323931</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.03034839743190883</v>
+        <v>0.03024242928355712</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>36</v>
@@ -3334,19 +3334,19 @@
         <v>17873</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>12383</v>
+        <v>12704</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>24933</v>
+        <v>24982</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.0384679791704767</v>
+        <v>0.03846797917047669</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.02665335376725886</v>
+        <v>0.02734246177224585</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.05366455397464019</v>
+        <v>0.05377086145765078</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>45</v>
@@ -3355,19 +3355,19 @@
         <v>22753</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>16766</v>
+        <v>17113</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>30374</v>
+        <v>30376</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.02936549680268343</v>
+        <v>0.02936549680268342</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.02163837873087304</v>
+        <v>0.02208622404099325</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.03920170756495701</v>
+        <v>0.03920442614760014</v>
       </c>
     </row>
     <row r="41">
@@ -3384,19 +3384,19 @@
         <v>30175</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>22370</v>
+        <v>22127</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>39785</v>
+        <v>39628</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.09727606803939887</v>
+        <v>0.09727606803939884</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.07211646150277369</v>
+        <v>0.07133333130312629</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1282575825344862</v>
+        <v>0.1277492174410753</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>147</v>
@@ -3405,19 +3405,19 @@
         <v>76207</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>65830</v>
+        <v>64070</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>89446</v>
+        <v>88072</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1640228736667137</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1416898507182684</v>
+        <v>0.137900335151023</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1925179775582319</v>
+        <v>0.1895622848114085</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>195</v>
@@ -3426,19 +3426,19 @@
         <v>106381</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>92225</v>
+        <v>92927</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>120359</v>
+        <v>121363</v>
       </c>
       <c r="U41" s="6" t="n">
-        <v>0.1373004242378239</v>
+        <v>0.1373004242378238</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1190296568318515</v>
+        <v>0.1199350864972926</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.155341005755907</v>
+        <v>0.1566370501324069</v>
       </c>
     </row>
     <row r="42">
@@ -3455,19 +3455,19 @@
         <v>183350</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>169449</v>
+        <v>169484</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>197622</v>
+        <v>198390</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.5910727101743221</v>
+        <v>0.5910727101743222</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.5462606115584159</v>
+        <v>0.5463736758668791</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.6370848994194778</v>
+        <v>0.6395602609094544</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>483</v>
@@ -3476,19 +3476,19 @@
         <v>253948</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>237219</v>
+        <v>237352</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>269087</v>
+        <v>270457</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.5465843257970175</v>
+        <v>0.5465843257970174</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.5105779310691545</v>
+        <v>0.510864435150257</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.5791692952837001</v>
+        <v>0.582116967420665</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>750</v>
@@ -3497,19 +3497,19 @@
         <v>437298</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>416004</v>
+        <v>416177</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>458838</v>
+        <v>457829</v>
       </c>
       <c r="U42" s="6" t="n">
-        <v>0.5643954942944808</v>
+        <v>0.5643954942944807</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.5369129429032156</v>
+        <v>0.5371367780379488</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.5921962378126727</v>
+        <v>0.5908938647729677</v>
       </c>
     </row>
     <row r="43">
@@ -3526,19 +3526,19 @@
         <v>69059</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>56723</v>
+        <v>57216</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>81459</v>
+        <v>80809</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.22262759963878</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1828609312321494</v>
+        <v>0.1844511939067461</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2626030930004838</v>
+        <v>0.2605073142881793</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>175</v>
@@ -3547,19 +3547,19 @@
         <v>90862</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>78656</v>
+        <v>78555</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>103366</v>
+        <v>103618</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1955662257676502</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1692944531971779</v>
+        <v>0.1690769612377594</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.2224802337618271</v>
+        <v>0.2230227556765168</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>281</v>
@@ -3568,19 +3568,19 @@
         <v>159920</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>143436</v>
+        <v>142007</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>179552</v>
+        <v>177101</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.2064003951028133</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1851244687155096</v>
+        <v>0.183279959637138</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.231738166047056</v>
+        <v>0.228574005561869</v>
       </c>
     </row>
     <row r="44">
@@ -3597,19 +3597,19 @@
         <v>22735</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>15328</v>
+        <v>14650</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>31522</v>
+        <v>31081</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.07329164339292413</v>
+        <v>0.07329164339292411</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.04941216394148776</v>
+        <v>0.04722682378063442</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1016178283061685</v>
+        <v>0.1001970554614746</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>40</v>
@@ -3618,19 +3618,19 @@
         <v>25720</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>18701</v>
+        <v>18171</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>34529</v>
+        <v>34525</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.05535859559814197</v>
+        <v>0.05535859559814196</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.0402512128256264</v>
+        <v>0.03911006793526607</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.07431768574705019</v>
+        <v>0.07431000379219689</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>68</v>
@@ -3639,19 +3639,19 @@
         <v>48455</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>38110</v>
+        <v>37864</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>61080</v>
+        <v>60871</v>
       </c>
       <c r="U44" s="6" t="n">
-        <v>0.06253818956219859</v>
+        <v>0.06253818956219857</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.04918597939359525</v>
+        <v>0.04886922048088729</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.07883194615771243</v>
+        <v>0.07856282020788989</v>
       </c>
     </row>
     <row r="45">
@@ -3743,19 +3743,19 @@
         <v>35305</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>24609</v>
+        <v>25345</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>49574</v>
+        <v>49671</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.009993670952906621</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.006965992866964981</v>
+        <v>0.007174144885963428</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.01403272878062168</v>
+        <v>0.01406007356581544</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>80</v>
@@ -3764,19 +3764,19 @@
         <v>51367</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>40681</v>
+        <v>40846</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>65564</v>
+        <v>64736</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.01374795326929336</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.01088796970883934</v>
+        <v>0.01093223784753939</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.01754780500235779</v>
+        <v>0.01732606918377998</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>119</v>
@@ -3785,19 +3785,19 @@
         <v>86672</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>72863</v>
+        <v>70601</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>107570</v>
+        <v>105536</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.0119233776810928</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.01002365463786939</v>
+        <v>0.009712520059881852</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.01479824843906273</v>
+        <v>0.01451847137187185</v>
       </c>
     </row>
     <row r="47">
@@ -3814,19 +3814,19 @@
         <v>184721</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>159762</v>
+        <v>157023</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>217788</v>
+        <v>215250</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.05228785430817971</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.04522292014108476</v>
+        <v>0.04444776196820412</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.06164796034603631</v>
+        <v>0.06092954771199208</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>482</v>
@@ -3835,19 +3835,19 @@
         <v>309428</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>279897</v>
+        <v>283821</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>336563</v>
+        <v>337582</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.08281641156048845</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.07491259585425006</v>
+        <v>0.07596284977311876</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.09007884646534353</v>
+        <v>0.09035146795603571</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>677</v>
@@ -3856,19 +3856,19 @@
         <v>494149</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>457228</v>
+        <v>455982</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>537374</v>
+        <v>532906</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.06797957841599682</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.0629003404488456</v>
+        <v>0.06272891945447605</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.07392603036427868</v>
+        <v>0.07331136619580159</v>
       </c>
     </row>
     <row r="48">
@@ -3885,19 +3885,19 @@
         <v>1485178</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>1426485</v>
+        <v>1420381</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>1553099</v>
+        <v>1547789</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.4204014858311833</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.4037874883206991</v>
+        <v>0.4020594940036309</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.4396273416821473</v>
+        <v>0.4381242051699805</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>2555</v>
@@ -3906,19 +3906,19 @@
         <v>1684924</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>1631503</v>
+        <v>1631072</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>1740514</v>
+        <v>1734799</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.4509583656997833</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.4366605128080675</v>
+        <v>0.4365452459964001</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.4658367777720065</v>
+        <v>0.4643070111112807</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>4122</v>
@@ -3927,19 +3927,19 @@
         <v>3170102</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>3085901</v>
+        <v>3082945</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>3252143</v>
+        <v>3250290</v>
       </c>
       <c r="U48" s="6" t="n">
-        <v>0.4361077678061536</v>
+        <v>0.4361077678061535</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.4245242192062803</v>
+        <v>0.4241176944928452</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.4473940185952612</v>
+        <v>0.4471390758290929</v>
       </c>
     </row>
     <row r="49">
@@ -3956,19 +3956,19 @@
         <v>1243650</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>1185904</v>
+        <v>1178686</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>1311248</v>
+        <v>1303165</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.3520334539879506</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.335687585442262</v>
+        <v>0.3336442629136062</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.3711678815006047</v>
+        <v>0.3688799756982187</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>1714</v>
@@ -3977,19 +3977,19 @@
         <v>1228149</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>1180096</v>
+        <v>1181570</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>1278211</v>
+        <v>1278647</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.3287056370548624</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.3158446209080439</v>
+        <v>0.3162392464816942</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.342104552348473</v>
+        <v>0.3422211020689226</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>2858</v>
@@ -3998,19 +3998,19 @@
         <v>2471799</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>2385229</v>
+        <v>2390942</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>2551214</v>
+        <v>2551048</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.3400429211787396</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.328133614367172</v>
+        <v>0.3289194465840975</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.350967871451512</v>
+        <v>0.3509450607736145</v>
       </c>
     </row>
     <row r="50">
@@ -4027,19 +4027,19 @@
         <v>583907</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>524937</v>
+        <v>529750</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>646183</v>
+        <v>642622</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.1652835349197799</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.1485909676194567</v>
+        <v>0.1499533886285315</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1829116084339101</v>
+        <v>0.1819036139161762</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>535</v>
@@ -4048,19 +4048,19 @@
         <v>462450</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>422922</v>
+        <v>425175</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>501171</v>
+        <v>502701</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.1237716324155724</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.1131922404061017</v>
+        <v>0.1137952314680466</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.1341350786044624</v>
+        <v>0.1345444077362386</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>966</v>
@@ -4069,19 +4069,19 @@
         <v>1046358</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>981797</v>
+        <v>981476</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>1128256</v>
+        <v>1119715</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.1439463549180173</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.1350648797602086</v>
+        <v>0.1350207007429348</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.1552130179931594</v>
+        <v>0.1540380499437627</v>
       </c>
     </row>
     <row r="51">
